--- a/Histology/Staining/Oil_Red_O_Staining/Oil_Red_O_0pt5percent_Stock.xlsx
+++ b/Histology/Staining/Oil_Red_O_Staining/Oil_Red_O_0pt5percent_Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Histology\Staining\Oil_Red_O_Staining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F145993D-BEFC-48F9-AADD-FAF213876ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F33CBB-652F-488B-B202-0D8242937C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9510" xr2:uid="{7C8C845E-1395-44C4-AEAE-4746341E964E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -222,12 +222,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -243,6 +237,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,6 +258,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9336935-6902-4EB3-826D-2D310470A9D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438524" y="85724"/>
+          <a:ext cx="4048125" cy="1019176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Add 35mL isopropanol</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Add 0.25g of Oil Red O</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Stir and heat to 90°C for 1 hour</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Pour into 50mL volumetric flask and fill to 50mL with isopropanol</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,10 +653,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,166 +681,138 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
+    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="e">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="e">
         <f>E7/F7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>0.5</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <f>I7/2</f>
         <v>0.25</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9">
         <v>0.99</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>100</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <f>I8/2</f>
         <v>50</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -757,5 +822,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Histology/Staining/Oil_Red_O_Staining/Oil_Red_O_0pt5percent_Stock.xlsx
+++ b/Histology/Staining/Oil_Red_O_Staining/Oil_Red_O_0pt5percent_Stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Histology\Staining\Oil_Red_O_Staining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F33CBB-652F-488B-B202-0D8242937C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CFC2FF-EBA8-4707-ACA5-A64CC7FB3BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16230" windowHeight="9510" xr2:uid="{7C8C845E-1395-44C4-AEAE-4746341E964E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Solution:</t>
   </si>
@@ -119,6 +119,22 @@
         <family val="2"/>
       </rPr>
       <t>50 mL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Amount for
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>120 mL</t>
     </r>
   </si>
 </sst>
@@ -216,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -243,6 +259,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection sqref="A1:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -673,11 +690,13 @@
     <col min="10" max="10" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +708,7 @@
       <c r="E1" s="11"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -699,7 +718,7 @@
       <c r="E2" s="10"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,9 +727,9 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,22 +755,28 @@
         <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
@@ -769,22 +794,29 @@
       <c r="H7" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="7">
-        <v>0.5</v>
+      <c r="I7" s="12">
+        <f>K7*1.2</f>
+        <v>0.6</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="7">
-        <f>I7/2</f>
-        <v>0.25</v>
+      <c r="K7" s="12">
+        <v>0.5</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="12">
+        <f>K7/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -800,19 +832,25 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="7">
-        <f>I8/2</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <f>K8/2</f>
+        <v>50</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -820,8 +858,8 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>